--- a/2_Analytics/Analytics_Data.xlsx
+++ b/2_Analytics/Analytics_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElAamrani_Ahmed\Documents\Projects\ALS\Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElAamrani_Ahmed\Documents\Projects\ALS\2_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,7 +445,7 @@
     <col min="10" max="10" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
